--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Cdon</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H2">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I2">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J2">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.45452870982496</v>
+        <v>2.623902</v>
       </c>
       <c r="N2">
-        <v>2.45452870982496</v>
+        <v>5.247804</v>
       </c>
       <c r="O2">
-        <v>0.04949712324182887</v>
+        <v>0.0429772840382545</v>
       </c>
       <c r="P2">
-        <v>0.04949712324182887</v>
+        <v>0.03946320605540395</v>
       </c>
       <c r="Q2">
-        <v>13.45931114235668</v>
+        <v>14.548354522149</v>
       </c>
       <c r="R2">
-        <v>13.45931114235668</v>
+        <v>58.19341808859601</v>
       </c>
       <c r="S2">
-        <v>0.02588832361858148</v>
+        <v>0.02062703495536454</v>
       </c>
       <c r="T2">
-        <v>0.02588832361858148</v>
+        <v>0.01609556717726245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H3">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I3">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J3">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.925592016404041</v>
+        <v>9.602673666666666</v>
       </c>
       <c r="N3">
-        <v>8.925592016404041</v>
+        <v>28.808021</v>
       </c>
       <c r="O3">
-        <v>0.1799902059706363</v>
+        <v>0.1572836309050415</v>
       </c>
       <c r="P3">
-        <v>0.1799902059706363</v>
+        <v>0.2166347807142576</v>
       </c>
       <c r="Q3">
-        <v>48.94313095530416</v>
+        <v>53.24249947717983</v>
       </c>
       <c r="R3">
-        <v>48.94313095530416</v>
+        <v>319.454996863079</v>
       </c>
       <c r="S3">
-        <v>0.09413970742455617</v>
+        <v>0.07548859880715511</v>
       </c>
       <c r="T3">
-        <v>0.09413970742455617</v>
+        <v>0.08835723232984451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H4">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I4">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J4">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.141453637727965</v>
+        <v>0.146072</v>
       </c>
       <c r="N4">
-        <v>0.141453637727965</v>
+        <v>0.438216</v>
       </c>
       <c r="O4">
-        <v>0.002852502034952933</v>
+        <v>0.002392535176251214</v>
       </c>
       <c r="P4">
-        <v>0.002852502034952933</v>
+        <v>0.003295360936646051</v>
       </c>
       <c r="Q4">
-        <v>0.7756554302168482</v>
+        <v>0.8099034345640002</v>
       </c>
       <c r="R4">
-        <v>0.7756554302168482</v>
+        <v>4.859420607384</v>
       </c>
       <c r="S4">
-        <v>0.001491935105859199</v>
+        <v>0.001148302127899597</v>
       </c>
       <c r="T4">
-        <v>0.001491935105859199</v>
+        <v>0.001344054592387833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H5">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I5">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J5">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.975244275438181</v>
+        <v>0.116002</v>
       </c>
       <c r="N5">
-        <v>0.975244275438181</v>
+        <v>0.348006</v>
       </c>
       <c r="O5">
-        <v>0.01966641738555755</v>
+        <v>0.001900014140393048</v>
       </c>
       <c r="P5">
-        <v>0.01966641738555755</v>
+        <v>0.002616986550282157</v>
       </c>
       <c r="Q5">
-        <v>5.347713428807579</v>
+        <v>0.6431788310990001</v>
       </c>
       <c r="R5">
-        <v>5.347713428807579</v>
+        <v>3.859072986594001</v>
       </c>
       <c r="S5">
-        <v>0.01028606400432494</v>
+        <v>0.0009119156542020995</v>
       </c>
       <c r="T5">
-        <v>0.01028606400432494</v>
+        <v>0.001067371028165381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H6">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I6">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J6">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.0925018920796</v>
+        <v>1.008459666666667</v>
       </c>
       <c r="N6">
-        <v>37.0925018920796</v>
+        <v>3.025379</v>
       </c>
       <c r="O6">
-        <v>0.7479937513670245</v>
+        <v>0.01651771199360982</v>
       </c>
       <c r="P6">
-        <v>0.7479937513670245</v>
+        <v>0.02275068864475348</v>
       </c>
       <c r="Q6">
-        <v>203.3952677007211</v>
+        <v>5.591454540586835</v>
       </c>
       <c r="R6">
-        <v>203.3952677007211</v>
+        <v>33.548727243521</v>
       </c>
       <c r="S6">
-        <v>0.3912208029840002</v>
+        <v>0.007927709493498082</v>
       </c>
       <c r="T6">
-        <v>0.3912208029840002</v>
+        <v>0.009279155801394086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.07661518113532</v>
+        <v>5.5445495</v>
       </c>
       <c r="H7">
-        <v>3.07661518113532</v>
+        <v>11.089099</v>
       </c>
       <c r="I7">
-        <v>0.2934556207752901</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J7">
-        <v>0.2934556207752901</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45452870982496</v>
+        <v>47.5561205</v>
       </c>
       <c r="N7">
-        <v>2.45452870982496</v>
+        <v>95.112241</v>
       </c>
       <c r="O7">
-        <v>0.04949712324182887</v>
+        <v>0.7789288237464499</v>
       </c>
       <c r="P7">
-        <v>0.04949712324182887</v>
+        <v>0.7152389770986567</v>
       </c>
       <c r="Q7">
-        <v>7.551640291179963</v>
+        <v>263.6772641402148</v>
       </c>
       <c r="R7">
-        <v>7.551640291179963</v>
+        <v>1054.709056560859</v>
       </c>
       <c r="S7">
-        <v>0.01452520902752193</v>
+        <v>0.3738484744838138</v>
       </c>
       <c r="T7">
-        <v>0.01452520902752193</v>
+        <v>0.2917192533096655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H8">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I8">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J8">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.925592016404041</v>
+        <v>2.623902</v>
       </c>
       <c r="N8">
-        <v>8.925592016404041</v>
+        <v>5.247804</v>
       </c>
       <c r="O8">
-        <v>0.1799902059706363</v>
+        <v>0.0429772840382545</v>
       </c>
       <c r="P8">
-        <v>0.1799902059706363</v>
+        <v>0.03946320605540395</v>
       </c>
       <c r="Q8">
-        <v>27.46061189828889</v>
+        <v>0.39414943893</v>
       </c>
       <c r="R8">
-        <v>27.46061189828889</v>
+        <v>2.36489663358</v>
       </c>
       <c r="S8">
-        <v>0.05281913762658538</v>
+        <v>0.0005588353130980405</v>
       </c>
       <c r="T8">
-        <v>0.05281913762658538</v>
+        <v>0.0006541006506116895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H9">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I9">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J9">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.141453637727965</v>
+        <v>9.602673666666666</v>
       </c>
       <c r="N9">
-        <v>0.141453637727965</v>
+        <v>28.808021</v>
       </c>
       <c r="O9">
-        <v>0.002852502034952933</v>
+        <v>0.1572836309050415</v>
       </c>
       <c r="P9">
-        <v>0.002852502034952933</v>
+        <v>0.2166347807142576</v>
       </c>
       <c r="Q9">
-        <v>0.4351984092606729</v>
+        <v>1.442465624838333</v>
       </c>
       <c r="R9">
-        <v>0.4351984092606729</v>
+        <v>12.982190623545</v>
       </c>
       <c r="S9">
-        <v>0.0008370827554298912</v>
+        <v>0.002045165232958386</v>
       </c>
       <c r="T9">
-        <v>0.0008370827554298912</v>
+        <v>0.003590710567493605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H10">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I10">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J10">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.975244275438181</v>
+        <v>0.146072</v>
       </c>
       <c r="N10">
-        <v>0.975244275438181</v>
+        <v>0.438216</v>
       </c>
       <c r="O10">
-        <v>0.01966641738555755</v>
+        <v>0.002392535176251214</v>
       </c>
       <c r="P10">
-        <v>0.01966641738555755</v>
+        <v>0.003295360936646051</v>
       </c>
       <c r="Q10">
-        <v>3.000451343128423</v>
+        <v>0.02194220548</v>
       </c>
       <c r="R10">
-        <v>3.000451343128423</v>
+        <v>0.19747984932</v>
       </c>
       <c r="S10">
-        <v>0.00577122072230475</v>
+        <v>3.111022890902822E-05</v>
       </c>
       <c r="T10">
-        <v>0.00577122072230475</v>
+        <v>5.462044137099101E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H11">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I11">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J11">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>37.0925018920796</v>
+        <v>0.116002</v>
       </c>
       <c r="N11">
-        <v>37.0925018920796</v>
+        <v>0.348006</v>
       </c>
       <c r="O11">
-        <v>0.7479937513670245</v>
+        <v>0.001900014140393048</v>
       </c>
       <c r="P11">
-        <v>0.7479937513670245</v>
+        <v>0.002616986550282157</v>
       </c>
       <c r="Q11">
-        <v>114.1193544274627</v>
+        <v>0.01742524043</v>
       </c>
       <c r="R11">
-        <v>114.1193544274627</v>
+        <v>0.15682716387</v>
       </c>
       <c r="S11">
-        <v>0.2195029706434481</v>
+        <v>2.470595852665187E-05</v>
       </c>
       <c r="T11">
-        <v>0.2195029706434481</v>
+        <v>4.337642012102045E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.92401449597554</v>
+        <v>0.150215</v>
       </c>
       <c r="H12">
-        <v>1.92401449597554</v>
+        <v>0.450645</v>
       </c>
       <c r="I12">
-        <v>0.1835175460873881</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J12">
-        <v>0.1835175460873881</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.45452870982496</v>
+        <v>1.008459666666667</v>
       </c>
       <c r="N12">
-        <v>2.45452870982496</v>
+        <v>3.025379</v>
       </c>
       <c r="O12">
-        <v>0.04949712324182887</v>
+        <v>0.01651771199360982</v>
       </c>
       <c r="P12">
-        <v>0.04949712324182887</v>
+        <v>0.02275068864475348</v>
       </c>
       <c r="Q12">
-        <v>4.722548818491363</v>
+        <v>0.1514857688283333</v>
       </c>
       <c r="R12">
-        <v>4.722548818491363</v>
+        <v>1.363371919455</v>
       </c>
       <c r="S12">
-        <v>0.009083590595725458</v>
+        <v>0.000214780458099583</v>
       </c>
       <c r="T12">
-        <v>0.009083590595725458</v>
+        <v>0.0003770915171845104</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.92401449597554</v>
+        <v>0.150215</v>
       </c>
       <c r="H13">
-        <v>1.92401449597554</v>
+        <v>0.450645</v>
       </c>
       <c r="I13">
-        <v>0.1835175460873881</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J13">
-        <v>0.1835175460873881</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.925592016404041</v>
+        <v>47.5561205</v>
       </c>
       <c r="N13">
-        <v>8.925592016404041</v>
+        <v>95.112241</v>
       </c>
       <c r="O13">
-        <v>0.1799902059706363</v>
+        <v>0.7789288237464499</v>
       </c>
       <c r="P13">
-        <v>0.1799902059706363</v>
+        <v>0.7152389770986567</v>
       </c>
       <c r="Q13">
-        <v>17.17296842472492</v>
+        <v>7.143642640907499</v>
       </c>
       <c r="R13">
-        <v>17.17296842472492</v>
+        <v>42.86185584544499</v>
       </c>
       <c r="S13">
-        <v>0.03303136091949471</v>
+        <v>0.01012844210239012</v>
       </c>
       <c r="T13">
-        <v>0.03303136091949471</v>
+        <v>0.01185504998266624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H14">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I14">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J14">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.141453637727965</v>
+        <v>2.623902</v>
       </c>
       <c r="N14">
-        <v>0.141453637727965</v>
+        <v>5.247804</v>
       </c>
       <c r="O14">
-        <v>0.002852502034952933</v>
+        <v>0.0429772840382545</v>
       </c>
       <c r="P14">
-        <v>0.002852502034952933</v>
+        <v>0.03946320605540395</v>
       </c>
       <c r="Q14">
-        <v>0.2721588494970772</v>
+        <v>0.594734501954</v>
       </c>
       <c r="R14">
-        <v>0.2721588494970772</v>
+        <v>3.568407011724</v>
       </c>
       <c r="S14">
-        <v>0.0005234841736638432</v>
+        <v>0.0008432300259310959</v>
       </c>
       <c r="T14">
-        <v>0.0005234841736638432</v>
+        <v>0.0009869764770575227</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H15">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I15">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J15">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.975244275438181</v>
+        <v>9.602673666666666</v>
       </c>
       <c r="N15">
-        <v>0.975244275438181</v>
+        <v>28.808021</v>
       </c>
       <c r="O15">
-        <v>0.01966641738555755</v>
+        <v>0.1572836309050415</v>
       </c>
       <c r="P15">
-        <v>0.01966641738555755</v>
+        <v>0.2166347807142576</v>
       </c>
       <c r="Q15">
-        <v>1.876384123060223</v>
+        <v>2.176545214177889</v>
       </c>
       <c r="R15">
-        <v>1.876384123060223</v>
+        <v>19.588906927601</v>
       </c>
       <c r="S15">
-        <v>0.003609132658927869</v>
+        <v>0.003085962343468309</v>
       </c>
       <c r="T15">
-        <v>0.003609132658927869</v>
+        <v>0.005418045162810792</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,1363 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H16">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I16">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J16">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.0925018920796</v>
+        <v>0.146072</v>
       </c>
       <c r="N16">
-        <v>37.0925018920796</v>
+        <v>0.438216</v>
       </c>
       <c r="O16">
-        <v>0.7479937513670245</v>
+        <v>0.002392535176251214</v>
       </c>
       <c r="P16">
-        <v>0.7479937513670245</v>
+        <v>0.003295360936646051</v>
       </c>
       <c r="Q16">
-        <v>71.3665113323613</v>
+        <v>0.03310872821066667</v>
       </c>
       <c r="R16">
-        <v>71.3665113323613</v>
+        <v>0.297978553896</v>
       </c>
       <c r="S16">
-        <v>0.1372699777395762</v>
+        <v>4.694241490261719E-05</v>
       </c>
       <c r="T16">
-        <v>0.1372699777395762</v>
+        <v>8.241711844997247E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J17">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.116002</v>
+      </c>
+      <c r="N17">
+        <v>0.348006</v>
+      </c>
+      <c r="O17">
+        <v>0.001900014140393048</v>
+      </c>
+      <c r="P17">
+        <v>0.002616986550282157</v>
+      </c>
+      <c r="Q17">
+        <v>0.02629305198733333</v>
+      </c>
+      <c r="R17">
+        <v>0.236637467886</v>
+      </c>
+      <c r="S17">
+        <v>3.727897210645023E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.545094593374299E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J18">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.008459666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.025379</v>
+      </c>
+      <c r="O18">
+        <v>0.01651771199360982</v>
+      </c>
+      <c r="P18">
+        <v>0.02275068864475348</v>
+      </c>
+      <c r="Q18">
+        <v>0.2285778041998889</v>
+      </c>
+      <c r="R18">
+        <v>2.057200237799</v>
+      </c>
+      <c r="S18">
+        <v>0.0003240835484228441</v>
+      </c>
+      <c r="T18">
+        <v>0.0005689956993789803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J19">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>47.5561205</v>
+      </c>
+      <c r="N19">
+        <v>95.112241</v>
+      </c>
+      <c r="O19">
+        <v>0.7789288237464499</v>
+      </c>
+      <c r="P19">
+        <v>0.7152389770986567</v>
+      </c>
+      <c r="Q19">
+        <v>10.77908612457017</v>
+      </c>
+      <c r="R19">
+        <v>64.67451674742099</v>
+      </c>
+      <c r="S19">
+        <v>0.01528286830925748</v>
+      </c>
+      <c r="T19">
+        <v>0.01788815751259499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.450882</v>
+      </c>
+      <c r="I20">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J20">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.623902</v>
+      </c>
+      <c r="N20">
+        <v>5.247804</v>
+      </c>
+      <c r="O20">
+        <v>0.0429772840382545</v>
+      </c>
+      <c r="P20">
+        <v>0.03946320605540395</v>
+      </c>
+      <c r="Q20">
+        <v>1.268990727188</v>
+      </c>
+      <c r="R20">
+        <v>7.613944363128001</v>
+      </c>
+      <c r="S20">
+        <v>0.001799208016816588</v>
+      </c>
+      <c r="T20">
+        <v>0.002105921202189727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.450882</v>
+      </c>
+      <c r="I21">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J21">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.602673666666666</v>
+      </c>
+      <c r="N21">
+        <v>28.808021</v>
+      </c>
+      <c r="O21">
+        <v>0.1572836309050415</v>
+      </c>
+      <c r="P21">
+        <v>0.2166347807142576</v>
+      </c>
+      <c r="Q21">
+        <v>4.644115458280222</v>
+      </c>
+      <c r="R21">
+        <v>41.797039124522</v>
+      </c>
+      <c r="S21">
+        <v>0.006584547534145789</v>
+      </c>
+      <c r="T21">
+        <v>0.01156053507658192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.450882</v>
+      </c>
+      <c r="I22">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J22">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.146072</v>
+      </c>
+      <c r="N22">
+        <v>0.438216</v>
+      </c>
+      <c r="O22">
+        <v>0.002392535176251214</v>
+      </c>
+      <c r="P22">
+        <v>0.003295360936646051</v>
+      </c>
+      <c r="Q22">
+        <v>0.07064441183466667</v>
+      </c>
+      <c r="R22">
+        <v>0.635799706512</v>
+      </c>
+      <c r="S22">
+        <v>0.0001001614821866185</v>
+      </c>
+      <c r="T22">
+        <v>0.0001758541983539731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.450882</v>
+      </c>
+      <c r="I23">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J23">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.116002</v>
+      </c>
+      <c r="N23">
+        <v>0.348006</v>
+      </c>
+      <c r="O23">
+        <v>0.001900014140393048</v>
+      </c>
+      <c r="P23">
+        <v>0.002616986550282157</v>
+      </c>
+      <c r="Q23">
+        <v>0.05610173792133334</v>
+      </c>
+      <c r="R23">
+        <v>0.5049156412920001</v>
+      </c>
+      <c r="S23">
+        <v>7.954250134599456E-05</v>
+      </c>
+      <c r="T23">
+        <v>0.0001396533128693903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.450882</v>
+      </c>
+      <c r="I24">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J24">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.008459666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.025379</v>
+      </c>
+      <c r="O24">
+        <v>0.01651771199360982</v>
+      </c>
+      <c r="P24">
+        <v>0.02275068864475348</v>
+      </c>
+      <c r="Q24">
+        <v>0.4877186593642223</v>
+      </c>
+      <c r="R24">
+        <v>4.389467934278</v>
+      </c>
+      <c r="S24">
+        <v>0.0006915001844210838</v>
+      </c>
+      <c r="T24">
+        <v>0.001214071596568689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.450882</v>
+      </c>
+      <c r="I25">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J25">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>47.5561205</v>
+      </c>
+      <c r="N25">
+        <v>95.112241</v>
+      </c>
+      <c r="O25">
+        <v>0.7789288237464499</v>
+      </c>
+      <c r="P25">
+        <v>0.7152389770986567</v>
+      </c>
+      <c r="Q25">
+        <v>22.99943974109367</v>
+      </c>
+      <c r="R25">
+        <v>137.996638446562</v>
+      </c>
+      <c r="S25">
+        <v>0.03260920310754581</v>
+      </c>
+      <c r="T25">
+        <v>0.03816813373930867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.223217</v>
+      </c>
+      <c r="H26">
+        <v>9.669651</v>
+      </c>
+      <c r="I26">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J26">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.623902</v>
+      </c>
+      <c r="N26">
+        <v>5.247804</v>
+      </c>
+      <c r="O26">
+        <v>0.0429772840382545</v>
+      </c>
+      <c r="P26">
+        <v>0.03946320605540395</v>
+      </c>
+      <c r="Q26">
+        <v>8.457405532734001</v>
+      </c>
+      <c r="R26">
+        <v>50.744433196404</v>
+      </c>
+      <c r="S26">
+        <v>0.01199112925725079</v>
+      </c>
+      <c r="T26">
+        <v>0.01403527168899683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.223217</v>
+      </c>
+      <c r="H27">
+        <v>9.669651</v>
+      </c>
+      <c r="I27">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J27">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>9.602673666666666</v>
+      </c>
+      <c r="N27">
+        <v>28.808021</v>
+      </c>
+      <c r="O27">
+        <v>0.1572836309050415</v>
+      </c>
+      <c r="P27">
+        <v>0.2166347807142576</v>
+      </c>
+      <c r="Q27">
+        <v>30.95150100785233</v>
+      </c>
+      <c r="R27">
+        <v>278.563509070671</v>
+      </c>
+      <c r="S27">
+        <v>0.04388384213747249</v>
+      </c>
+      <c r="T27">
+        <v>0.07704716135688872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.223217</v>
+      </c>
+      <c r="H28">
+        <v>9.669651</v>
+      </c>
+      <c r="I28">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J28">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.146072</v>
+      </c>
+      <c r="N28">
+        <v>0.438216</v>
+      </c>
+      <c r="O28">
+        <v>0.002392535176251214</v>
+      </c>
+      <c r="P28">
+        <v>0.003295360936646051</v>
+      </c>
+      <c r="Q28">
+        <v>0.470821753624</v>
+      </c>
+      <c r="R28">
+        <v>4.237395782616</v>
+      </c>
+      <c r="S28">
+        <v>0.0006675433125418317</v>
+      </c>
+      <c r="T28">
+        <v>0.001172010352990591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.223217</v>
+      </c>
+      <c r="H29">
+        <v>9.669651</v>
+      </c>
+      <c r="I29">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J29">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.116002</v>
+      </c>
+      <c r="N29">
+        <v>0.348006</v>
+      </c>
+      <c r="O29">
+        <v>0.001900014140393048</v>
+      </c>
+      <c r="P29">
+        <v>0.002616986550282157</v>
+      </c>
+      <c r="Q29">
+        <v>0.373899618434</v>
+      </c>
+      <c r="R29">
+        <v>3.365096565906</v>
+      </c>
+      <c r="S29">
+        <v>0.0005301245915813951</v>
+      </c>
+      <c r="T29">
+        <v>0.0009307433660634104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.223217</v>
+      </c>
+      <c r="H30">
+        <v>9.669651</v>
+      </c>
+      <c r="I30">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J30">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.008459666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.025379</v>
+      </c>
+      <c r="O30">
+        <v>0.01651771199360982</v>
+      </c>
+      <c r="P30">
+        <v>0.02275068864475348</v>
+      </c>
+      <c r="Q30">
+        <v>3.250484341414333</v>
+      </c>
+      <c r="R30">
+        <v>29.254359072729</v>
+      </c>
+      <c r="S30">
+        <v>0.004608621135135399</v>
+      </c>
+      <c r="T30">
+        <v>0.008091387602735454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.223217</v>
+      </c>
+      <c r="H31">
+        <v>9.669651</v>
+      </c>
+      <c r="I31">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J31">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>47.5561205</v>
+      </c>
+      <c r="N31">
+        <v>95.112241</v>
+      </c>
+      <c r="O31">
+        <v>0.7789288237464499</v>
+      </c>
+      <c r="P31">
+        <v>0.7152389770986567</v>
+      </c>
+      <c r="Q31">
+        <v>153.2836960496485</v>
+      </c>
+      <c r="R31">
+        <v>919.702176297891</v>
+      </c>
+      <c r="S31">
+        <v>0.2173296060176386</v>
+      </c>
+      <c r="T31">
+        <v>0.2543780490628734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.92403</v>
+      </c>
+      <c r="H32">
+        <v>3.84806</v>
+      </c>
+      <c r="I32">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J32">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.623902</v>
+      </c>
+      <c r="N32">
+        <v>5.247804</v>
+      </c>
+      <c r="O32">
+        <v>0.0429772840382545</v>
+      </c>
+      <c r="P32">
+        <v>0.03946320605540395</v>
+      </c>
+      <c r="Q32">
+        <v>5.048466165060001</v>
+      </c>
+      <c r="R32">
+        <v>20.19386466024</v>
+      </c>
+      <c r="S32">
+        <v>0.007157846469793449</v>
+      </c>
+      <c r="T32">
+        <v>0.005585368859285731</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.92403</v>
+      </c>
+      <c r="H33">
+        <v>3.84806</v>
+      </c>
+      <c r="I33">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J33">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>9.602673666666666</v>
+      </c>
+      <c r="N33">
+        <v>28.808021</v>
+      </c>
+      <c r="O33">
+        <v>0.1572836309050415</v>
+      </c>
+      <c r="P33">
+        <v>0.2166347807142576</v>
+      </c>
+      <c r="Q33">
+        <v>18.47583221487667</v>
+      </c>
+      <c r="R33">
+        <v>110.85499328926</v>
+      </c>
+      <c r="S33">
+        <v>0.02619551484984138</v>
+      </c>
+      <c r="T33">
+        <v>0.03066109622063808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.92403</v>
+      </c>
+      <c r="H34">
+        <v>3.84806</v>
+      </c>
+      <c r="I34">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J34">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.146072</v>
+      </c>
+      <c r="N34">
+        <v>0.438216</v>
+      </c>
+      <c r="O34">
+        <v>0.002392535176251214</v>
+      </c>
+      <c r="P34">
+        <v>0.003295360936646051</v>
+      </c>
+      <c r="Q34">
+        <v>0.2810469101600001</v>
+      </c>
+      <c r="R34">
+        <v>1.68628146096</v>
+      </c>
+      <c r="S34">
+        <v>0.0003984756098115207</v>
+      </c>
+      <c r="T34">
+        <v>0.0004664042330926909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.92403</v>
+      </c>
+      <c r="H35">
+        <v>3.84806</v>
+      </c>
+      <c r="I35">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J35">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.116002</v>
+      </c>
+      <c r="N35">
+        <v>0.348006</v>
+      </c>
+      <c r="O35">
+        <v>0.001900014140393048</v>
+      </c>
+      <c r="P35">
+        <v>0.002616986550282157</v>
+      </c>
+      <c r="Q35">
+        <v>0.22319132806</v>
+      </c>
+      <c r="R35">
+        <v>1.33914796836</v>
+      </c>
+      <c r="S35">
+        <v>0.0003164464626304564</v>
+      </c>
+      <c r="T35">
+        <v>0.0003703914771292126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.92403</v>
+      </c>
+      <c r="H36">
+        <v>3.84806</v>
+      </c>
+      <c r="I36">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J36">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.008459666666667</v>
+      </c>
+      <c r="N36">
+        <v>3.025379</v>
+      </c>
+      <c r="O36">
+        <v>0.01651771199360982</v>
+      </c>
+      <c r="P36">
+        <v>0.02275068864475348</v>
+      </c>
+      <c r="Q36">
+        <v>1.940306652456667</v>
+      </c>
+      <c r="R36">
+        <v>11.64183991474</v>
+      </c>
+      <c r="S36">
+        <v>0.002751017174032825</v>
+      </c>
+      <c r="T36">
+        <v>0.003219986427491767</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.92403</v>
+      </c>
+      <c r="H37">
+        <v>3.84806</v>
+      </c>
+      <c r="I37">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J37">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>47.5561205</v>
+      </c>
+      <c r="N37">
+        <v>95.112241</v>
+      </c>
+      <c r="O37">
+        <v>0.7789288237464499</v>
+      </c>
+      <c r="P37">
+        <v>0.7152389770986567</v>
+      </c>
+      <c r="Q37">
+        <v>91.499402525615</v>
+      </c>
+      <c r="R37">
+        <v>365.99761010246</v>
+      </c>
+      <c r="S37">
+        <v>0.1297302297258041</v>
+      </c>
+      <c r="T37">
+        <v>0.101230333491548</v>
       </c>
     </row>
   </sheetData>
